--- a/checkCdC_89(1).xlsx
+++ b/checkCdC_89(1).xlsx
@@ -561,7 +561,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -589,7 +589,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF72BF44"/>
-        <bgColor rgb="FF999999"/>
+        <bgColor rgb="FF62A73B"/>
       </patternFill>
     </fill>
     <fill>
@@ -638,6 +638,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF200"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF62A73B"/>
+        <bgColor rgb="FF72BF44"/>
       </patternFill>
     </fill>
     <fill>
@@ -688,7 +694,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -809,6 +815,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -822,6 +832,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -885,7 +899,7 @@
       <rgbColor rgb="FF74489D"/>
       <rgbColor rgb="FF999999"/>
       <rgbColor rgb="FF00508F"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF62A73B"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -904,8 +918,8 @@
   </sheetPr>
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H22" activeCellId="0" sqref="H22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B34" activeCellId="0" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1246,12 +1260,12 @@
       <c r="A34" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="24"/>
+      <c r="B34" s="30"/>
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="30" t="s">
+      <c r="A35" s="31" t="s">
         <v>48</v>
       </c>
       <c r="B35" s="13"/>
@@ -1259,7 +1273,7 @@
       <c r="D35" s="18"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="31" t="s">
+      <c r="A36" s="32" t="s">
         <v>49</v>
       </c>
       <c r="B36" s="13" t="s">
@@ -1271,7 +1285,7 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="31" t="s">
+      <c r="A37" s="32" t="s">
         <v>50</v>
       </c>
       <c r="B37" s="13" t="s">
@@ -1295,7 +1309,7 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="31" t="s">
+      <c r="A39" s="32" t="s">
         <v>53</v>
       </c>
       <c r="B39" s="13" t="s">
@@ -1307,10 +1321,10 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="31" t="s">
+      <c r="A40" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="B40" s="32" t="s">
+      <c r="B40" s="33" t="s">
         <v>55</v>
       </c>
       <c r="C40" s="18" t="s">
@@ -1321,7 +1335,7 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="31" t="s">
+      <c r="A41" s="32" t="s">
         <v>57</v>
       </c>
       <c r="B41" s="13" t="s">
@@ -1335,7 +1349,7 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="30" t="s">
+      <c r="A42" s="31" t="s">
         <v>60</v>
       </c>
       <c r="B42" s="13" t="s">
@@ -1345,7 +1359,7 @@
       <c r="D42" s="18"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="30" t="s">
+      <c r="A43" s="31" t="s">
         <v>61</v>
       </c>
       <c r="B43" s="13" t="s">
@@ -1392,7 +1406,7 @@
       <c r="A47" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B47" s="24"/>
+      <c r="B47" s="30"/>
       <c r="C47" s="25"/>
       <c r="D47" s="25"/>
     </row>
@@ -1412,7 +1426,7 @@
       <c r="A49" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="34" t="s">
         <v>13</v>
       </c>
       <c r="C49" s="18"/>
@@ -1421,10 +1435,10 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="28.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="33" t="s">
+      <c r="A50" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="34" t="s">
         <v>13</v>
       </c>
       <c r="C50" s="18"/>
@@ -1433,11 +1447,11 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="41.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="33" t="s">
+      <c r="A51" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="B51" s="32" t="s">
-        <v>55</v>
+      <c r="B51" s="34" t="s">
+        <v>13</v>
       </c>
       <c r="C51" s="18"/>
       <c r="D51" s="19" t="s">
@@ -1445,11 +1459,11 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="28.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="33" t="s">
+      <c r="A52" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="B52" s="32" t="s">
-        <v>55</v>
+      <c r="B52" s="34" t="s">
+        <v>13</v>
       </c>
       <c r="C52" s="18"/>
       <c r="D52" s="19" t="s">
@@ -1457,11 +1471,11 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="28.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="33" t="s">
+      <c r="A53" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="B53" s="32" t="s">
-        <v>55</v>
+      <c r="B53" s="34" t="s">
+        <v>13</v>
       </c>
       <c r="C53" s="18"/>
       <c r="D53" s="19" t="s">
